--- a/biology/Zoologie/Développement_de_la_coquille_d'œuf_chez_la_poule_domestique/Développement_de_la_coquille_d'œuf_chez_la_poule_domestique.xlsx
+++ b/biology/Zoologie/Développement_de_la_coquille_d'œuf_chez_la_poule_domestique/Développement_de_la_coquille_d'œuf_chez_la_poule_domestique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9veloppement_de_la_coquille_d%27%C5%93uf_chez_la_poule_domestique</t>
+          <t>Développement_de_la_coquille_d'œuf_chez_la_poule_domestique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement de la coquille d'œuf chez la poule domestique est la biominéralisation, principalement composée de calcite, un carbonate de calcium (CaCO3), de la coquille d'œuf de poule domestique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9veloppement_de_la_coquille_d%27%C5%93uf_chez_la_poule_domestique</t>
+          <t>Développement_de_la_coquille_d'œuf_chez_la_poule_domestique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Le processus de minéralisation de la coquille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les coquilles d'œufs, qui pèsent en moyenne 5 grammes, sont constituées à 40 % de calcium. Il faut 16 heures à ce calcium pour se fixer sur la coquille par la sécrétion de la glande coquillière de l'oviducte. Il se dépose donc à une vitesse de 125 milligrammes à l'heure. Aucune poule ne peut consommer autant de calcium en si peu de temps pour être en mesure de suffire à cette demande, d'autant plus qu'il y a une désynchronisation entre l’apport alimentaire diurne et la formation de la coquille, essentiellement nocturne. Les poules utilisent 60 à 70 % de calcium par la voie intestinale issu du calcium ionique sanguin et 30 à 40 % du calcium contenu dans des masses osseuses spéciales localisées dans leurs os longs, qui accumulent de grandes réserves de calcium destiné à la formation de coquilles. Le calcium y est présent sous forme de phosphate de calcium, Ca3(PO4)2, un autre composé insoluble et un constituant de l'os. Si le régime d'une poule est faible en calcium, la coquille de ses œufs s'amincit progressivement[1]. La poule peut alors employer 10 % de la quantité totale de calcium contenu dans ses os pour seulement pondre un œuf. Si cette carence continue, la coquille devient molle, puis la poule cesse de pondre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coquilles d'œufs, qui pèsent en moyenne 5 grammes, sont constituées à 40 % de calcium. Il faut 16 heures à ce calcium pour se fixer sur la coquille par la sécrétion de la glande coquillière de l'oviducte. Il se dépose donc à une vitesse de 125 milligrammes à l'heure. Aucune poule ne peut consommer autant de calcium en si peu de temps pour être en mesure de suffire à cette demande, d'autant plus qu'il y a une désynchronisation entre l’apport alimentaire diurne et la formation de la coquille, essentiellement nocturne. Les poules utilisent 60 à 70 % de calcium par la voie intestinale issu du calcium ionique sanguin et 30 à 40 % du calcium contenu dans des masses osseuses spéciales localisées dans leurs os longs, qui accumulent de grandes réserves de calcium destiné à la formation de coquilles. Le calcium y est présent sous forme de phosphate de calcium, Ca3(PO4)2, un autre composé insoluble et un constituant de l'os. Si le régime d'une poule est faible en calcium, la coquille de ses œufs s'amincit progressivement. La poule peut alors employer 10 % de la quantité totale de calcium contenu dans ses os pour seulement pondre un œuf. Si cette carence continue, la coquille devient molle, puis la poule cesse de pondre.
 Normalement, le sang véhicule les substances de base nécessaires à la formation des coquilles (les ions Ca2+ et CO2−3) jusqu’à la glande coquillière. Dans cette glande, la calcification se fait par une réaction de précipitation :
               Ca
             (
